--- a/libraryOld/export_pos.xlsx
+++ b/libraryOld/export_pos.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\libraryOld\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9975"/>
   </bookViews>
@@ -21,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>Republic of  the philippines</t>
-  </si>
-  <si>
     <t>Department of the Interior and Local Government</t>
   </si>
   <si>
@@ -94,12 +96,15 @@
   </si>
   <si>
     <t>Received by:</t>
+  </si>
+  <si>
+    <t>Republic of  the Philippines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,20 +214,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,6 +226,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -241,6 +237,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,7 +557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -562,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:I29"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="175" zoomScaleNormal="100" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,57 +579,57 @@
   <sheetData>
     <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -638,7 +643,7 @@
     </row>
     <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -652,7 +657,7 @@
     </row>
     <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -690,7 +695,7 @@
     </row>
     <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -716,7 +721,7 @@
     </row>
     <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -730,7 +735,7 @@
     </row>
     <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -743,9 +748,9 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -755,95 +760,95 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -860,7 +865,7 @@
     </row>
     <row r="31" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -874,7 +879,7 @@
     </row>
     <row r="32" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -900,7 +905,7 @@
     </row>
     <row r="34" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -926,14 +931,14 @@
     </row>
     <row r="36" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -954,14 +959,14 @@
     </row>
     <row r="38" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -970,14 +975,14 @@
     </row>
     <row r="39" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1010,7 +1015,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1072,12 +1077,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="D25:I28"/>
-    <mergeCell ref="A25:C28"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="D29:I29"/>
     <mergeCell ref="C11:H11"/>
@@ -1086,6 +1085,12 @@
     <mergeCell ref="D23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="D25:I28"/>
+    <mergeCell ref="A25:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
